--- a/raw_data/Test amelio sani.xlsx
+++ b/raw_data/Test amelio sani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaud/Library/CloudStorage/Dropbox/CLESSN/ellipse_maroc/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C083297-9696-2142-B606-6AE3DF7569D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C501D2A-C501-B744-9267-476A0ABA457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15600" xr2:uid="{F91BBD4E-03D7-4042-9C09-4B28D6B44E75}"/>
+    <workbookView xWindow="740" yWindow="1000" windowWidth="27640" windowHeight="15600" xr2:uid="{F91BBD4E-03D7-4042-9C09-4B28D6B44E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3CD0C2-F3D8-C742-AF6F-3415EC21137C}">
   <dimension ref="A1:A262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
